--- a/biology/Botanique/Doyen_de_Ramegnies/Doyen_de_Ramegnies.xlsx
+++ b/biology/Botanique/Doyen_de_Ramegnies/Doyen_de_Ramegnies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doyenné Ramegnies est une variété de poire
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété est obtenue vers 1835, par Norbert Bouzin, doyen de Ramegnies-Chin, Belgique, Hainaut[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété est obtenue vers 1835, par Norbert Bouzin, doyen de Ramegnies-Chin, Belgique, Hainaut.
 </t>
         </is>
       </c>
@@ -542,16 +556,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très vigoureux : très fertile, dressé, pyramidal.
-Scions robustes : dressés, à écorce roussâtre[1].
-Bourgeons
-Bourgeons :Très gros, ovales, aigu, entièrement écartés du scion.
-Bouton à fruit: Gros, ovale, conique, aigu[1].
-Feuilles
-Très épaisses, dressées, ovales, oblongues, acuminées, dentelées en scie, à pétiole assez long, dressés[1].
-</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Très vigoureux : très fertile, dressé, pyramidal.
+Scions robustes : dressés, à écorce roussâtre.</t>
         </is>
       </c>
     </row>
@@ -576,20 +586,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fruit</t>
+          <t>Arbre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forme et calibre
-Piridion: Gros, turbiné, épaté à sa base, un peu atténué au sommet.
-Pédoncule : Robuste, terminal, souvent un peu renflé à sa base.
-Calice : affleurant. largement ouvert, à sépales étalés.
-Peau : verte lisse, jaunissante à la maturité[1].
-Chair
-Fine, beurrée, fondante, vineuse[1].
-Date de maturité
-Octobre à novembre.
+          <t>Bourgeons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bourgeons :Très gros, ovales, aigu, entièrement écartés du scion.
+Bouton à fruit: Gros, ovale, conique, aigu.
 </t>
         </is>
       </c>
@@ -615,12 +624,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très épaisses, dressées, ovales, oblongues, acuminées, dentelées en scie, à pétiole assez long, dressés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Piridion: Gros, turbiné, épaté à sa base, un peu atténué au sommet.
+Pédoncule : Robuste, terminal, souvent un peu renflé à sa base.
+Calice : affleurant. largement ouvert, à sépales étalés.
+Peau : verte lisse, jaunissante à la maturité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fine, beurrée, fondante, vineuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Date de maturité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Octobre à novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doyen_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culture en plein vent et en pyramide[1].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culture en plein vent et en pyramide.
 </t>
         </is>
       </c>
